--- a/examples/nnp.xlsx
+++ b/examples/nnp.xlsx
@@ -57,7 +57,7 @@
     <t>The set of themes given to each node and edge</t>
   </si>
   <si>
-    <t>0:(t0,t1)</t>
+    <t>0:{t0,t1}</t>
   </si>
   <si>
     <t>t3.1:{t0,t2}</t>
@@ -273,7 +273,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -302,16 +301,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -566,11 +562,11 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -620,30 +616,30 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="K9" s="6"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2"/>
@@ -708,10 +704,10 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>0.0</v>
       </c>
       <c r="E18" s="3" t="b">
@@ -724,7 +720,7 @@
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>0.0</v>
       </c>
       <c r="E19" s="3" t="b">
@@ -734,10 +730,10 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="3" t="b">
@@ -747,10 +743,10 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="3" t="b">
@@ -760,10 +756,10 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>0.0</v>
       </c>
       <c r="E22" s="3" t="b">
@@ -771,10 +767,10 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>0.0</v>
       </c>
       <c r="E23" s="3" t="b">
@@ -782,10 +778,10 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>0.0</v>
       </c>
       <c r="E24" s="3" t="b">
@@ -793,10 +789,10 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>0.0</v>
       </c>
       <c r="E25" s="3" t="b">
@@ -804,10 +800,10 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>0.0</v>
       </c>
       <c r="E26" s="3" t="b">
@@ -815,10 +811,10 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="3" t="b">
@@ -826,10 +822,10 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="3" t="b">
@@ -837,10 +833,10 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="3" t="b">
@@ -848,10 +844,10 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="3" t="b">
@@ -859,10 +855,10 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="3" t="b">
@@ -870,10 +866,10 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="3" t="b">
@@ -881,10 +877,10 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="3" t="b">
@@ -892,10 +888,10 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>0.0</v>
       </c>
       <c r="E34" s="3" t="b">
@@ -903,10 +899,10 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>0.0</v>
       </c>
       <c r="E35" s="3" t="b">
@@ -914,10 +910,10 @@
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>0.0</v>
       </c>
       <c r="E36" s="3" t="b">
@@ -925,10 +921,10 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E37" s="3" t="b">
@@ -936,10 +932,10 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>0.0</v>
       </c>
       <c r="E38" s="3" t="b">
@@ -947,10 +943,10 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E39" s="3" t="b">
@@ -958,10 +954,10 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="3" t="b">
@@ -969,10 +965,10 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E41" s="3" t="b">
@@ -980,10 +976,10 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="3" t="b">
@@ -991,10 +987,10 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E43" s="3" t="b">
@@ -1002,10 +998,10 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E44" s="3" t="b">
@@ -1013,10 +1009,10 @@
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E45" s="3" t="b">
@@ -1024,10 +1020,10 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>0.0</v>
       </c>
       <c r="E46" s="3" t="b">
@@ -1035,10 +1031,10 @@
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E47" s="3" t="b">
@@ -1046,178 +1042,178 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>0.0</v>
       </c>
-      <c r="E48" s="8" t="b">
+      <c r="E48" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E49" s="8" t="b">
+      <c r="E49" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>0.0</v>
       </c>
-      <c r="E50" s="8" t="b">
+      <c r="E50" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>0.0</v>
       </c>
-      <c r="E51" s="8" t="b">
+      <c r="E51" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="8" t="b">
+      <c r="E52" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="8" t="b">
+      <c r="E53" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="8" t="b">
+      <c r="E54" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="8" t="b">
+      <c r="E55" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <v>0.0</v>
       </c>
-      <c r="E56" s="8" t="b">
+      <c r="E56" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="8" t="b">
+      <c r="E57" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E58" s="8" t="b">
+      <c r="E58" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E59" s="8" t="b">
+      <c r="E59" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="8" t="b">
+      <c r="E60" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E61" s="8" t="b">
+      <c r="E61" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="8" t="b">
+      <c r="E62" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E63" s="8" t="b">
+      <c r="E63" s="7" t="b">
         <v>1</v>
       </c>
     </row>
